--- a/AmazonCo/totals.xlsx
+++ b/AmazonCo/totals.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,23 +415,23 @@
         <v>5.11</v>
       </c>
       <c r="B2" t="str">
-        <v>1,000</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>100% Blackout Shield</v>
+        <v>10L0L</v>
       </c>
       <c r="B3" t="str">
-        <v>12</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>10L0L</v>
+        <v>180s</v>
       </c>
       <c r="B4" t="str">
-        <v>166</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -447,108 +447,2748 @@
         <v>2LB Depot</v>
       </c>
       <c r="B6" t="str">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>3-D Mats</v>
+        <v>6amLifestyle</v>
       </c>
       <c r="B7" t="str">
-        <v>376</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>6amLifestyle</v>
+        <v>7D-TMB3-E9M8</v>
       </c>
       <c r="B8" t="str">
-        <v>85</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>7D-TMB3-E9M8</v>
+        <v>A Nice Night</v>
       </c>
       <c r="B9" t="str">
-        <v>1,000</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>A Nice Night</v>
+        <v>A2ZCare</v>
       </c>
       <c r="B10" t="str">
-        <v>40,000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>A11N SPORTS</v>
+        <v>A73850</v>
       </c>
       <c r="B11" t="str">
-        <v>39</v>
+        <v>100,000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>a1cover</v>
+        <v>AA Ignition</v>
       </c>
       <c r="B12" t="str">
-        <v>42</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>A2ZCare</v>
+        <v>ABC Pack &amp; Supply</v>
       </c>
       <c r="B13" t="str">
-        <v>75</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>A73850</v>
+        <v>ABRA</v>
       </c>
       <c r="B14" t="str">
-        <v>100,000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>AA Ignition</v>
+        <v>Acer</v>
       </c>
       <c r="B15" t="str">
-        <v>519</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>AARON</v>
+        <v>ACK</v>
       </c>
       <c r="B16" t="str">
-        <v>97</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>ABC Pack &amp; Supply</v>
+        <v>ACSTEP</v>
       </c>
       <c r="B17" t="str">
-        <v>200</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>ACCO Brands</v>
+        <v>Adela shop</v>
       </c>
       <c r="B18" t="str">
+        <v>100,000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>ADKX-US</v>
+      </c>
+      <c r="B19" t="str">
+        <v>30,000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Admired By Nature</v>
+      </c>
+      <c r="B20" t="str">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>ADRIMER</v>
+      </c>
+      <c r="B21" t="str">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Aduro</v>
+      </c>
+      <c r="B22" t="str">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>AFMAT</v>
+      </c>
+      <c r="B23" t="str">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Aideng</v>
+      </c>
+      <c r="B24" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Aifacay</v>
+      </c>
+      <c r="B25" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Aipsun</v>
+      </c>
+      <c r="B26" t="str">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Airthereal</v>
+      </c>
+      <c r="B27" t="str">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Ajuny</v>
+      </c>
+      <c r="B28" t="str">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>AKD Part</v>
+      </c>
+      <c r="B29" t="str">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Aleratec</v>
+      </c>
+      <c r="B30" t="str">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Alexandra Cole</v>
+      </c>
+      <c r="B31" t="str">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>ALIPRET</v>
+      </c>
+      <c r="B32" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>ALITOVE</v>
+      </c>
+      <c r="B33" t="str">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Alla Lighting</v>
+      </c>
+      <c r="B34" t="str">
+        <v>2,000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Allstar Innovations</v>
+      </c>
+      <c r="B35" t="str">
+        <v>90,000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Ally</v>
+      </c>
+      <c r="B36" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>ALPHA HOME</v>
+      </c>
+      <c r="B37" t="str">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Alpha Living Home</v>
+      </c>
+      <c r="B38" t="str">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Alphidia</v>
+      </c>
+      <c r="B39" t="str">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Alsonerbay</v>
+      </c>
+      <c r="B40" t="str">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>AluanTech</v>
+      </c>
+      <c r="B41" t="str">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>AM alphamount</v>
+      </c>
+      <c r="B42" t="str">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>AMAGEBELI GARDEN HOME</v>
+      </c>
+      <c r="B43" t="str">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Amarine-made</v>
+      </c>
+      <c r="B44" t="str">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>AmazLit</v>
+      </c>
+      <c r="B45" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Amazon source</v>
+      </c>
+      <c r="B46" t="str">
+        <v>10,000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Amberide</v>
+      </c>
+      <c r="B47" t="str">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>American Linen &amp; Rugs</v>
+      </c>
+      <c r="B48" t="str">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>American Soft Linen</v>
+      </c>
+      <c r="B49" t="str">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Ampper</v>
+      </c>
+      <c r="B50" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Ana Bath</v>
+      </c>
+      <c r="B51" t="str">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Andency</v>
+      </c>
+      <c r="B52" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Andorra</v>
+      </c>
+      <c r="B53" t="str">
+        <v>70,000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>ANDY STAR TEK INC</v>
+      </c>
+      <c r="B54" t="str">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Aneder</v>
+      </c>
+      <c r="B55" t="str">
+        <v>10,000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>ANG</v>
+      </c>
+      <c r="B56" t="str">
+        <v>10,000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Anjee</v>
+      </c>
+      <c r="B57" t="str">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Anksono</v>
+      </c>
+      <c r="B58" t="str">
+        <v>7,000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Antarctic Star</v>
+      </c>
+      <c r="B59" t="str">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>ANTRobut</v>
+      </c>
+      <c r="B60" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>ANYQOO</v>
+      </c>
+      <c r="B61" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>AOKESI</v>
+      </c>
+      <c r="B62" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Apace Vision</v>
+      </c>
+      <c r="B63" t="str">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Apex Tool Group</v>
+      </c>
+      <c r="B64" t="str">
         <v>40,000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Aqua Elegante</v>
+      </c>
+      <c r="B65" t="str">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Aqua Quest</v>
+      </c>
+      <c r="B66" t="str">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>AQUATUS</v>
+      </c>
+      <c r="B67" t="str">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>ArcEnCiel</v>
+      </c>
+      <c r="B68" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>ARES</v>
+      </c>
+      <c r="B69" t="str">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Arjun</v>
+      </c>
+      <c r="B70" t="str">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Arkwright LLC</v>
+      </c>
+      <c r="B71" t="str">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>ArmadilloTek</v>
+      </c>
+      <c r="B72" t="str">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Arrow Hanger</v>
+      </c>
+      <c r="B73" t="str">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>ART &amp; ARTIFACT</v>
+      </c>
+      <c r="B74" t="str">
+        <v>2,000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Art3d</v>
+      </c>
+      <c r="B75" t="str">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>ARTALL</v>
+      </c>
+      <c r="B76" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Artfan</v>
+      </c>
+      <c r="B77" t="str">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Artificial flowers</v>
+      </c>
+      <c r="B78" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>ARTSAY</v>
+      </c>
+      <c r="B79" t="str">
+        <v>3,000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Asani</v>
+      </c>
+      <c r="B80" t="str">
+        <v>5,000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Ashler Home Deco</v>
+      </c>
+      <c r="B81" t="str">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>ASIILOVI</v>
+      </c>
+      <c r="B82" t="str">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>ASUS</v>
+      </c>
+      <c r="B83" t="str">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Athlio LTD</v>
+      </c>
+      <c r="B84" t="str">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Ativafit</v>
+      </c>
+      <c r="B85" t="str">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>atolla</v>
+      </c>
+      <c r="B86" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Avola</v>
+      </c>
+      <c r="B87" t="str">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Awenia</v>
+      </c>
+      <c r="B88" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>AY</v>
+      </c>
+      <c r="B89" t="str">
+        <v>10,000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>AYL</v>
+      </c>
+      <c r="B90" t="str">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Baby &amp; Mom</v>
+      </c>
+      <c r="B91" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>BAFX Products</v>
+      </c>
+      <c r="B92" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>BAGERLA</v>
+      </c>
+      <c r="B93" t="str">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>BAGSMART</v>
+      </c>
+      <c r="B94" t="str">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>baibu</v>
+      </c>
+      <c r="B95" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>BaiHui</v>
+      </c>
+      <c r="B96" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Baishuo</v>
+      </c>
+      <c r="B97" t="str">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Baisuart</v>
+      </c>
+      <c r="B98" t="str">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>BALEINE</v>
+      </c>
+      <c r="B99" t="str">
+        <v>3,000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Balhvit</v>
+      </c>
+      <c r="B100" t="str">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>BALI OUTDOORS</v>
+      </c>
+      <c r="B101" t="str">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Bambloom</v>
+      </c>
+      <c r="B102" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Bamboo Bay</v>
+      </c>
+      <c r="B103" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>BambooMN</v>
+      </c>
+      <c r="B104" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Bambüsi</v>
+      </c>
+      <c r="B105" t="str">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Bandai Hobby</v>
+      </c>
+      <c r="B106" t="str">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Banpresto</v>
+      </c>
+      <c r="B107" t="str">
+        <v>2,000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Bare Home</v>
+      </c>
+      <c r="B108" t="str">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Barkan</v>
+      </c>
+      <c r="B109" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Barnyard Designs</v>
+      </c>
+      <c r="B110" t="str">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>BarvA</v>
+      </c>
+      <c r="B111" t="str">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>BASDHE</v>
+      </c>
+      <c r="B112" t="str">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Bath Royale</v>
+      </c>
+      <c r="B113" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>BATHLAVISH</v>
+      </c>
+      <c r="B114" t="str">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>BATTILO HOME</v>
+      </c>
+      <c r="B115" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>BBOUNDER</v>
+      </c>
+      <c r="B116" t="str">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Bearington Collection</v>
+      </c>
+      <c r="B117" t="str">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>BearTOOL</v>
+      </c>
+      <c r="B118" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>BEAUTEX</v>
+      </c>
+      <c r="B119" t="str">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Beauty4U</v>
+      </c>
+      <c r="B120" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>BeautyLZ</v>
+      </c>
+      <c r="B121" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Beckham Luxury Linens</v>
+      </c>
+      <c r="B122" t="str">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Becko US</v>
+      </c>
+      <c r="B123" t="str">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Begabeaty</v>
+      </c>
+      <c r="B124" t="str">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Belkin Inc.</v>
+      </c>
+      <c r="B125" t="str">
+        <v>4,000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>BELL</v>
+      </c>
+      <c r="B126" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>belleza suprema</v>
+      </c>
+      <c r="B127" t="str">
+        <v>30,000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Benson Mills</v>
+      </c>
+      <c r="B128" t="str">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Bernat</v>
+      </c>
+      <c r="B129" t="str">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Berry Ave</v>
+      </c>
+      <c r="B130" t="str">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Best Learning Materials Corp.</v>
+      </c>
+      <c r="B131" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Best Ride on Cars</v>
+      </c>
+      <c r="B132" t="str">
+        <v>100,000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>BESTEK</v>
+      </c>
+      <c r="B133" t="str">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Besti</v>
+      </c>
+      <c r="B134" t="str">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Bestn</v>
+      </c>
+      <c r="B135" t="str">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>BESy</v>
+      </c>
+      <c r="B136" t="str">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Better Boat</v>
+      </c>
+      <c r="B137" t="str">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Better Houseware</v>
+      </c>
+      <c r="B138" t="str">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Beuway</v>
+      </c>
+      <c r="B139" t="str">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>BEWISHOME</v>
+      </c>
+      <c r="B140" t="str">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Bextsrack</v>
+      </c>
+      <c r="B141" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Bezrat</v>
+      </c>
+      <c r="B142" t="str">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>BigAlex</v>
+      </c>
+      <c r="B143" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>BINO</v>
+      </c>
+      <c r="B144" t="str">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Binval</v>
+      </c>
+      <c r="B145" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Blackburn</v>
+      </c>
+      <c r="B146" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Blazin' Bison</v>
+      </c>
+      <c r="B147" t="str">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>BlenderBottle</v>
+      </c>
+      <c r="B148" t="str">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Blingstar</v>
+      </c>
+      <c r="B149" t="str">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>BLITZU</v>
+      </c>
+      <c r="B150" t="str">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>bloom daily planners</v>
+      </c>
+      <c r="B151" t="str">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Blue Summit Supplies</v>
+      </c>
+      <c r="B152" t="str">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>BlueFire</v>
+      </c>
+      <c r="B153" t="str">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>BMAG</v>
+      </c>
+      <c r="B154" t="str">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>BND TOP</v>
+      </c>
+      <c r="B155" t="str">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>BOACAY</v>
+      </c>
+      <c r="B156" t="str">
+        <v>10,000</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Board Geeks</v>
+      </c>
+      <c r="B157" t="str">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>BOGAA</v>
+      </c>
+      <c r="B158" t="str">
+        <v>30,000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Bolsius</v>
+      </c>
+      <c r="B159" t="str">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>BON AUGURE</v>
+      </c>
+      <c r="B160" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Bon Tool</v>
+      </c>
+      <c r="B161" t="str">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Boncoo</v>
+      </c>
+      <c r="B162" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Bonropin</v>
+      </c>
+      <c r="B163" t="str">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Bonstato Inc.</v>
+      </c>
+      <c r="B164" t="str">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Borner</v>
+      </c>
+      <c r="B165" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Bosceos</v>
+      </c>
+      <c r="B166" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Bosmarlin</v>
+      </c>
+      <c r="B167" t="str">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>BougeRV</v>
+      </c>
+      <c r="B168" t="str">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>BOURINA</v>
+      </c>
+      <c r="B169" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Boxclever Press</v>
+      </c>
+      <c r="B170" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Brace Master</v>
+      </c>
+      <c r="B171" t="str">
+        <v>70,000</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Breathe Essential</v>
+      </c>
+      <c r="B172" t="str">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>breo</v>
+      </c>
+      <c r="B173" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Breyer</v>
+      </c>
+      <c r="B174" t="str">
+        <v>6,000</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Brightech</v>
+      </c>
+      <c r="B175" t="str">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Brightever</v>
+      </c>
+      <c r="B176" t="str">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>BrightLines</v>
+      </c>
+      <c r="B177" t="str">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Brightown</v>
+      </c>
+      <c r="B178" t="str">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>BRINGSMART</v>
+      </c>
+      <c r="B179" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>BrizLabs</v>
+      </c>
+      <c r="B180" t="str">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Bruder</v>
+      </c>
+      <c r="B181" t="str">
+        <v>2,000</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Brybelly Holdings, Inc.</v>
+      </c>
+      <c r="B182" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>BSTDECOR</v>
+      </c>
+      <c r="B183" t="str">
+        <v>300,000</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>BUCLA</v>
+      </c>
+      <c r="B184" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Buddybar</v>
+      </c>
+      <c r="B185" t="str">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>BUHUA</v>
+      </c>
+      <c r="B186" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>BULL GUARD</v>
+      </c>
+      <c r="B187" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Bumble Towels</v>
+      </c>
+      <c r="B188" t="str">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>BUNN</v>
+      </c>
+      <c r="B189" t="str">
+        <v>70,000</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>BUYDEEM</v>
+      </c>
+      <c r="B190" t="str">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>BUYUE</v>
+      </c>
+      <c r="B191" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>By the Buy</v>
+      </c>
+      <c r="B192" t="str">
+        <v>40,000</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Bywater Outdoor Products Co.,Ltd</v>
+      </c>
+      <c r="B193" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>C CIGARLOONG CIGARLOONG</v>
+      </c>
+      <c r="B194" t="str">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>C&amp;AHOME</v>
+      </c>
+      <c r="B195" t="str">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Cable Matters</v>
+      </c>
+      <c r="B196" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>CableMod</v>
+      </c>
+      <c r="B197" t="str">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>CAGIE</v>
+      </c>
+      <c r="B198" t="str">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Cakebe</v>
+      </c>
+      <c r="B199" t="str">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Calendar</v>
+      </c>
+      <c r="B200" t="str">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>CALIENTE HOME</v>
+      </c>
+      <c r="B201" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>California Costume</v>
+      </c>
+      <c r="B202" t="str">
+        <v>2,000</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Calphalon</v>
+      </c>
+      <c r="B203" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>CANARY</v>
+      </c>
+      <c r="B204" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Candle by the Hour</v>
+      </c>
+      <c r="B205" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Candy Bila</v>
+      </c>
+      <c r="B206" t="str">
+        <v>5,000</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Canson</v>
+      </c>
+      <c r="B207" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Capresso</v>
+      </c>
+      <c r="B208" t="str">
+        <v>2,000</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Carvapet</v>
+      </c>
+      <c r="B209" t="str">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Casaottima</v>
+      </c>
+      <c r="B210" t="str">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Cascade Designs Inc.</v>
+      </c>
+      <c r="B211" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>CASE ELEGANCE</v>
+      </c>
+      <c r="B212" t="str">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>CASEKOO</v>
+      </c>
+      <c r="B213" t="str">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Casio</v>
+      </c>
+      <c r="B214" t="str">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Catalonia</v>
+      </c>
+      <c r="B215" t="str">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Cave Tools</v>
+      </c>
+      <c r="B216" t="str">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>CBHWallArt</v>
+      </c>
+      <c r="B217" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>CDLong</v>
+      </c>
+      <c r="B218" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>CECO</v>
+      </c>
+      <c r="B219" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>CECOLIC</v>
+      </c>
+      <c r="B220" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>CEWOR</v>
+      </c>
+      <c r="B221" t="str">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>CFMASTER</v>
+      </c>
+      <c r="B222" t="str">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>CGBOOM</v>
+      </c>
+      <c r="B223" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>CHANGZHOU JUTAI ELECTRONIC CO., LTD.</v>
+      </c>
+      <c r="B224" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Changzhou Jutai Electronic Co.,Ltd</v>
+      </c>
+      <c r="B225" t="str">
+        <v>30,000</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>CHANGZHOU JUTAI ELECTRONIC CO.,LTD.</v>
+      </c>
+      <c r="B226" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Charcoal Companion</v>
+      </c>
+      <c r="B227" t="str">
+        <v>3,000</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>CHAREADA</v>
+      </c>
+      <c r="B228" t="str">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Charmed Fashion Inc</v>
+      </c>
+      <c r="B229" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Charmly</v>
+      </c>
+      <c r="B230" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Cheer Collection</v>
+      </c>
+      <c r="B231" t="str">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Chemex Coffee Maker</v>
+      </c>
+      <c r="B232" t="str">
+        <v>5,000</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Chesapeake Bay Candle</v>
+      </c>
+      <c r="B233" t="str">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>CHICVITA</v>
+      </c>
+      <c r="B234" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Cico Rider</v>
+      </c>
+      <c r="B235" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Cilio</v>
+      </c>
+      <c r="B236" t="str">
+        <v>7,000</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Cinbloo</v>
+      </c>
+      <c r="B237" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>CINOTON</v>
+      </c>
+      <c r="B238" t="str">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>cisson pty ltd</v>
+      </c>
+      <c r="B239" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>CKNY HOME FASHION</v>
+      </c>
+      <c r="B240" t="str">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>CLOUD-9</v>
+      </c>
+      <c r="B241" t="str">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Cloudybay Lighting</v>
+      </c>
+      <c r="B242" t="str">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>CMYBabee (NOT HP OEM)</v>
+      </c>
+      <c r="B243" t="str">
+        <v>4,000</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>co2CREA</v>
+      </c>
+      <c r="B244" t="str">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Coach</v>
+      </c>
+      <c r="B245" t="str">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Coleshome</v>
+      </c>
+      <c r="B246" t="str">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Collections Etc</v>
+      </c>
+      <c r="B247" t="str">
+        <v>5,000</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Colorful Art Co.</v>
+      </c>
+      <c r="B248" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>COLORPAPA</v>
+      </c>
+      <c r="B249" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Comfify</v>
+      </c>
+      <c r="B250" t="str">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>ComfyHome</v>
+      </c>
+      <c r="B251" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>COMISO</v>
+      </c>
+      <c r="B252" t="str">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Commemorative Cremation Urns</v>
+      </c>
+      <c r="B253" t="str">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Concealment Express</v>
+      </c>
+      <c r="B254" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>ConstructivePlaythings</v>
+      </c>
+      <c r="B255" t="str">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>CoolShields</v>
+      </c>
+      <c r="B256" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>COOLWUFAN</v>
+      </c>
+      <c r="B257" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Coquilles</v>
+      </c>
+      <c r="B258" t="str">
+        <v>7,000</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>CORE ART</v>
+      </c>
+      <c r="B259" t="str">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Corelle</v>
+      </c>
+      <c r="B260" t="str">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Cosmas</v>
+      </c>
+      <c r="B261" t="str">
+        <v>7,000</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>cossy</v>
+      </c>
+      <c r="B262" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Cotanic</v>
+      </c>
+      <c r="B263" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Cover World</v>
+      </c>
+      <c r="B264" t="str">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Cozy Line Home Fashions</v>
+      </c>
+      <c r="B265" t="str">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>CozyHome</v>
+      </c>
+      <c r="B266" t="str">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>CraftsOfEgypt</v>
+      </c>
+      <c r="B267" t="str">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>CRANACH</v>
+      </c>
+      <c r="B268" t="str">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Creative Scents</v>
+      </c>
+      <c r="B269" t="str">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Cressi</v>
+      </c>
+      <c r="B270" t="str">
+        <v>3,000</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Cross</v>
+      </c>
+      <c r="B271" t="str">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Cuaulans</v>
+      </c>
+      <c r="B272" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>CubiCubi</v>
+      </c>
+      <c r="B273" t="str">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>CuffUp</v>
+      </c>
+      <c r="B274" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>cuisinel</v>
+      </c>
+      <c r="B275" t="str">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>CURE CHOICE</v>
+      </c>
+      <c r="B276" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>CUSIBOX</v>
+      </c>
+      <c r="B277" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Custom Cut Decor</v>
+      </c>
+      <c r="B278" t="str">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>CXAB</v>
+      </c>
+      <c r="B279" t="str">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>CYGNUS</v>
+      </c>
+      <c r="B280" t="str">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>CYTAC</v>
+      </c>
+      <c r="B281" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>CZ</v>
+      </c>
+      <c r="B282" t="str">
+        <v>10,000</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>D-FantiX</v>
+      </c>
+      <c r="B283" t="str">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>D-Line</v>
+      </c>
+      <c r="B284" t="str">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>D'light Online</v>
+      </c>
+      <c r="B285" t="str">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>DailyPlus</v>
+      </c>
+      <c r="B286" t="str">
+        <v>80,000</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Dainty Home</v>
+      </c>
+      <c r="B287" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>DALIX</v>
+      </c>
+      <c r="B288" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Dalstrong</v>
+      </c>
+      <c r="B289" t="str">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>DAMA</v>
+      </c>
+      <c r="B290" t="str">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>DampRid</v>
+      </c>
+      <c r="B291" t="str">
+        <v>2,000</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>DAN RIVER</v>
+      </c>
+      <c r="B292" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>DANGTOP</v>
+      </c>
+      <c r="B293" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Danmitex</v>
+      </c>
+      <c r="B294" t="str">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Danya B.</v>
+      </c>
+      <c r="B295" t="str">
+        <v>100,000</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Davidsons Collection</v>
+      </c>
+      <c r="B296" t="str">
+        <v>100,000</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>DAYBETTER</v>
+      </c>
+      <c r="B297" t="str">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>DC Cargo Mall</v>
+      </c>
+      <c r="B298" t="str">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>DDRPL</v>
+      </c>
+      <c r="B299" t="str">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>DECLUTTR</v>
+      </c>
+      <c r="B300" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>DECOMOMO</v>
+      </c>
+      <c r="B301" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>Deconovo</v>
+      </c>
+      <c r="B302" t="str">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>DECOSIS</v>
+      </c>
+      <c r="B303" t="str">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>DEKOPRO</v>
+      </c>
+      <c r="B304" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>Demdaco</v>
+      </c>
+      <c r="B305" t="str">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>DEMDACO - Home</v>
+      </c>
+      <c r="B306" t="str">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>DEMMEX</v>
+      </c>
+      <c r="B307" t="str">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Derwent</v>
+      </c>
+      <c r="B308" t="str">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>Designstyles</v>
+      </c>
+      <c r="B309" t="str">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>DETUM</v>
+      </c>
+      <c r="B310" t="str">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>Dewhel</v>
+      </c>
+      <c r="B311" t="str">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>Dial Industries</v>
+      </c>
+      <c r="B312" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>DiamondHome</v>
+      </c>
+      <c r="B313" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>DII</v>
+      </c>
+      <c r="B314" t="str">
+        <v>90,000</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>DIMJ</v>
+      </c>
+      <c r="B315" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>Disguise</v>
+      </c>
+      <c r="B316" t="str">
+        <v>80,000</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>Disney</v>
+      </c>
+      <c r="B317" t="str">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>DJI</v>
+      </c>
+      <c r="B318" t="str">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>DLQuart US</v>
+      </c>
+      <c r="B319" t="str">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>Doglay</v>
+      </c>
+      <c r="B320" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>Dometic USA</v>
+      </c>
+      <c r="B321" t="str">
+        <v>7,000</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>DONREN</v>
+      </c>
+      <c r="B322" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>DONWORD</v>
+      </c>
+      <c r="B323" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>Dosctt</v>
+      </c>
+      <c r="B324" t="str">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>Dosly home</v>
+      </c>
+      <c r="B325" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>Dott Arts</v>
+      </c>
+      <c r="B326" t="str">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>DOUNGURI</v>
+      </c>
+      <c r="B327" t="str">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>DPAccessories</v>
+      </c>
+      <c r="B328" t="str">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>DR.IRON</v>
+      </c>
+      <c r="B329" t="str">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>Dreamon</v>
+      </c>
+      <c r="B330" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>DREATIVE CO</v>
+      </c>
+      <c r="B331" t="str">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>DUALIFE</v>
+      </c>
+      <c r="B332" t="str">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>DuraCasa</v>
+      </c>
+      <c r="B333" t="str">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>DURGOD</v>
+      </c>
+      <c r="B334" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>DWCN</v>
+      </c>
+      <c r="B335" t="str">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>DWËLLZA KITCHEN</v>
+      </c>
+      <c r="B336" t="str">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>Dye</v>
+      </c>
+      <c r="B337" t="str">
+        <v>100,000</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>DYE PRECISION, INC.</v>
+      </c>
+      <c r="B338" t="str">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>Dymo-CoStar Corp</v>
+      </c>
+      <c r="B339" t="str">
+        <v>90,000</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>E Home International Inc.</v>
+      </c>
+      <c r="B340" t="str">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>E-FirstFeeling</v>
+      </c>
+      <c r="B341" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>EAMBRITE</v>
+      </c>
+      <c r="B342" t="str">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>Eapele</v>
+      </c>
+      <c r="B343" t="str">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>EASELAND</v>
+      </c>
+      <c r="B344" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>EaseLife</v>
+      </c>
+      <c r="B345" t="str">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>Easy-Going</v>
+      </c>
+      <c r="B346" t="str">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>Easyworkz</v>
+      </c>
+      <c r="B347" t="str">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>EcoClean Solutions</v>
+      </c>
+      <c r="B348" t="str">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B348"/>
   </ignoredErrors>
 </worksheet>
 </file>